--- a/เช็คชื่อ/[2021-09-08] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-09-08] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25615CD9-0198-471B-B776-D587F724C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02714F7-BDF2-42CB-B223-DC0FFEA3E282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="38">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -489,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E594"/>
+  <dimension ref="A1:E606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H580" sqref="H580"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F595" sqref="F595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8479,7 +8474,10 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
-        <v>44447</v>
+        <v>44354</v>
+      </c>
+      <c r="B583" s="2">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -8490,7 +8488,7 @@
         <v>6</v>
       </c>
       <c r="C584" s="2">
-        <v>0.83680555555555547</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="E584" s="9">
         <v>1</v>
@@ -8503,8 +8501,8 @@
       <c r="B585" t="s">
         <v>7</v>
       </c>
-      <c r="C585" s="10">
-        <v>0.83263888888888893</v>
+      <c r="C585" s="2">
+        <v>0.82986111111111116</v>
       </c>
       <c r="D585" s="10"/>
       <c r="E585" s="9">
@@ -8519,7 +8517,7 @@
         <v>15</v>
       </c>
       <c r="C586" s="2">
-        <v>0.83750000000000002</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="E586" s="9">
         <v>1</v>
@@ -8532,8 +8530,8 @@
       <c r="B587" t="s">
         <v>8</v>
       </c>
-      <c r="C587" s="10">
-        <v>0.83124999999999993</v>
+      <c r="C587" s="2">
+        <v>0.82986111111111116</v>
       </c>
       <c r="D587" s="10"/>
       <c r="E587" s="9">
@@ -8548,7 +8546,7 @@
         <v>16</v>
       </c>
       <c r="C588" s="2">
-        <v>0.83194444444444438</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E588" s="9">
         <v>1</v>
@@ -8562,7 +8560,7 @@
         <v>9</v>
       </c>
       <c r="C589" s="2">
-        <v>0.8305555555555556</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D589" s="9"/>
       <c r="E589" s="9">
@@ -8577,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="C590" s="2">
-        <v>0.82986111111111116</v>
+        <v>0.8305555555555556</v>
       </c>
       <c r="E590" s="9">
         <v>1</v>
@@ -8590,8 +8588,8 @@
       <c r="B591" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C591" s="10">
-        <v>0.83194444444444438</v>
+      <c r="C591" s="2">
+        <v>0.82986111111111116</v>
       </c>
       <c r="D591" s="10"/>
       <c r="E591" s="9">
@@ -8606,7 +8604,7 @@
         <v>12</v>
       </c>
       <c r="C592" s="2">
-        <v>0.78749999999999998</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="E592" s="9">
         <v>1</v>
@@ -8634,10 +8632,172 @@
         <v>14</v>
       </c>
       <c r="C594" s="2">
-        <v>0.85277777777777775</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D594" s="9"/>
       <c r="E594" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>1</v>
+      </c>
+      <c r="B596" t="s">
+        <v>6</v>
+      </c>
+      <c r="C596" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>2</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597" s="2">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D597" s="2"/>
+      <c r="E597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>3</v>
+      </c>
+      <c r="B598" t="s">
+        <v>15</v>
+      </c>
+      <c r="C598" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>4</v>
+      </c>
+      <c r="B599" t="s">
+        <v>8</v>
+      </c>
+      <c r="C599" s="2">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="D599" s="2"/>
+      <c r="E599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>5</v>
+      </c>
+      <c r="B600" t="s">
+        <v>16</v>
+      </c>
+      <c r="C600" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>6</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" s="2">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="E601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>7</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>8</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" s="2">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D603" s="2"/>
+      <c r="E603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>9</v>
+      </c>
+      <c r="B604" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>10</v>
+      </c>
+      <c r="B605" t="s">
+        <v>13</v>
+      </c>
+      <c r="C605" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>11</v>
+      </c>
+      <c r="B606" t="s">
+        <v>14</v>
+      </c>
+      <c r="C606" s="2">
+        <v>0.85277777777777775</v>
+      </c>
+      <c r="E606">
         <v>0.5</v>
       </c>
     </row>

--- a/เช็คชื่อ/[2021-09-08] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-09-08] เอกสารเช็คชื่อ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\team4\เช็คชื่อ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02714F7-BDF2-42CB-B223-DC0FFEA3E282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B64CC-7C3B-4D18-9461-603953632A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8280" yWindow="3960" windowWidth="17280" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +206,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,21 +487,21 @@
   <dimension ref="A1:E606"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F595" sqref="F595"/>
+      <selection activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44371</v>
       </c>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>44373</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9</v>
       </c>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>44375</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>11</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44377</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="6">
         <v>0.83333333333333337</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44378</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44379</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44380</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>11</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44382</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>11</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44383</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44384</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>9</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44385</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>8</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>9</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44386</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>5</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>9</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44387</v>
       </c>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4</v>
       </c>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>5</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>6</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>8</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>11</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44389</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>11</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44390</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>9</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>11</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44391</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>6</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>8</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>9</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>11</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44392</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="C191" s="2"/>
       <c r="E191" s="9"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="C192" s="2"/>
       <c r="E192" s="9"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>9</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="D196" s="10"/>
       <c r="E196" s="9"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>11</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44394</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>6</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>7</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>9</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44396</v>
       </c>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="E211" s="9"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>5</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>6</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>9</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>11</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44397</v>
       </c>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E223" s="9"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>5</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>6</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>7</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>8</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>11</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44398</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E235" s="9"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>6</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>7</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>8</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>10</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>11</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44399</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E247" s="9"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>5</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>6</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>8</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>9</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>10</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>11</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44400</v>
       </c>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E259" s="9"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>6</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>7</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>9</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>11</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44401</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E271" s="9"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="C273" s="2"/>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="C274" s="2"/>
       <c r="E274" s="9"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="C275" s="2"/>
       <c r="E275" s="9"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>5</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="C276" s="2"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>7</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="C278" s="2"/>
       <c r="E278" s="9"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>8</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>9</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>11</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44403</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E283" s="9"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="C285" s="2"/>
       <c r="E285" s="9"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="C287" s="2"/>
       <c r="E287" s="9"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>5</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>6</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>7</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>8</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>9</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>10</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>11</v>
       </c>
@@ -4455,12 +4455,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44405</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>4</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>5</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>6</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>7</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>8</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>9</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>10</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>11</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44406</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>4</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>5</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>6</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>8</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>9</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>10</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>11</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44407</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>4</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>5</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>6</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>7</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>8</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>9</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>10</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>11</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44410</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>4</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>5</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>6</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>7</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>8</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>9</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>11</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44411</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>4</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>5</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>6</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>7</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>8</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>9</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>10</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>11</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44413</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>4</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>5</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>6</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>7</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>8</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>9</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>10</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>11</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44414</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>3</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>5</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>6</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>7</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>8</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>9</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>10</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44415</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>4</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>5</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>6</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>7</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>8</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>9</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>10</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>11</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44417</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>4</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>5</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>6</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>7</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>8</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>9</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>10</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>11</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44418</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>4</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>5</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>6</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>7</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>8</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>9</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>10</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>11</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44420</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>5</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>6</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>7</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>8</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>9</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>10</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>11</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44421</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>4</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>5</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>6</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>7</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>8</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>9</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>10</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>11</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44422</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>5</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>6</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>7</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>8</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>9</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>10</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>11</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44424</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>5</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>6</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>7</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>8</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>9</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>10</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>11</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>44427</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>4</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>5</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>6</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>7</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>8</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>9</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>10</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>11</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>44428</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>5</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>6</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>7</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>8</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>9</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>10</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>11</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44429</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>1</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>4</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>5</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>6</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>7</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>8</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>9</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>10</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>11</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44431</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>1</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>3</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>4</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>5</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>6</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>7</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>8</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>9</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>10</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>11</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>44432</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>3</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>4</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>5</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>6</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>7</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>8</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>9</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>10</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>11</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>44434</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>4</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>5</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>6</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>7</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>8</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>9</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>10</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>11</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44435</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>1</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>3</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>4</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>5</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>6</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>7</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>8</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>9</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>10</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>11</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44443</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>1</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>2</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>3</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>4</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>5</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>6</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>7</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>8</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>9</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>10</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>11</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44444</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>1</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>3</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>4</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>5</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>6</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>7</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>8</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>9</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>10</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>11</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44353</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>2</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>3</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>4</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>5</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>6</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>7</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>8</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>9</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>10</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>11</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44354</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>1</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>3</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>4</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>5</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>6</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>7</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>8</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>9</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>10</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>11</v>
       </c>
@@ -8639,12 +8639,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44447</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B595" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>1</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>2</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>3</v>
       </c>
@@ -8687,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>4</v>
       </c>
@@ -8702,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>5</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>6</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>7</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>8</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>9</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>10</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>11</v>
       </c>
